--- a/biology/Médecine/Formule_de_Cockcroft_et_Gault/Formule_de_Cockcroft_et_Gault.xlsx
+++ b/biology/Médecine/Formule_de_Cockcroft_et_Gault/Formule_de_Cockcroft_et_Gault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La formule de Cockcroft et Gault, en médecine, permet chez l'adulte l'estimation de la clairance de la créatinine. Cette clairance étant très proche du débit de filtration glomérulaire, elle renseigne sur l'état de la fonction rénale.
-Cette formule a été proposée par Donald W. Cockcroft et Henry Gault en 1976[1].
+Cette formule a été proposée par Donald W. Cockcroft et Henry Gault en 1976.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Formule</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
         C
@@ -553,7 +567,7 @@
  : créatininémie en µmol/L ;
 Âge : âge en années ;
 Poids : masse corporelle en kg ;
-k : coefficient qui vaut 1,25 chez l'homme et 1,04 chez la femme[2].
+k : coefficient qui vaut 1,25 chez l'homme et 1,04 chez la femme.
 La formule peut également être présentée ainsi : 
         C
           l
